--- a/dist/static/东城华府业主信息表.xlsx
+++ b/dist/static/东城华府业主信息表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="G14" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="G14" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,114 +66,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">         房号
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>11F</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>14F</t>
+  </si>
+  <si>
+    <t>15F</t>
+  </si>
+  <si>
+    <t>16F</t>
+  </si>
+  <si>
+    <t>17F</t>
+  </si>
+  <si>
+    <t>18F</t>
+  </si>
+  <si>
+    <t>19F</t>
+  </si>
+  <si>
+    <t>20F</t>
+  </si>
+  <si>
+    <t>21F</t>
+  </si>
+  <si>
+    <t>22F</t>
+  </si>
+  <si>
+    <t>23F</t>
+  </si>
+  <si>
+    <t>24F</t>
+  </si>
+  <si>
+    <t>25F</t>
+  </si>
+  <si>
+    <t>26F</t>
+  </si>
+  <si>
+    <t>27F</t>
+  </si>
+  <si>
+    <t>28F</t>
+  </si>
+  <si>
+    <t>29F</t>
+  </si>
+  <si>
+    <t>30F</t>
+  </si>
+  <si>
+    <t>31F</t>
+  </si>
+  <si>
+    <t>32F</t>
+  </si>
+  <si>
+    <t>范珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArgusHuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_index.jspx</t>
+  </si>
+  <si>
+    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_loupan.jspx?dengJh=%E5%A4%8F1800093</t>
+  </si>
+  <si>
+    <t>楼盘表（栋表）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             室号
 楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2F</t>
+    <t>网址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>5F</t>
-  </si>
-  <si>
-    <t>6F</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>10F</t>
-  </si>
-  <si>
-    <t>11F</t>
-  </si>
-  <si>
-    <t>12F</t>
-  </si>
-  <si>
-    <t>13F</t>
-  </si>
-  <si>
-    <t>14F</t>
-  </si>
-  <si>
-    <t>15F</t>
-  </si>
-  <si>
-    <t>16F</t>
-  </si>
-  <si>
-    <t>17F</t>
-  </si>
-  <si>
-    <t>18F</t>
-  </si>
-  <si>
-    <t>19F</t>
-  </si>
-  <si>
-    <t>20F</t>
-  </si>
-  <si>
-    <t>21F</t>
-  </si>
-  <si>
-    <t>22F</t>
-  </si>
-  <si>
-    <t>23F</t>
-  </si>
-  <si>
-    <t>24F</t>
-  </si>
-  <si>
-    <t>25F</t>
-  </si>
-  <si>
-    <t>26F</t>
-  </si>
-  <si>
-    <t>27F</t>
-  </si>
-  <si>
-    <t>28F</t>
-  </si>
-  <si>
-    <t>29F</t>
-  </si>
-  <si>
-    <t>30F</t>
-  </si>
-  <si>
-    <t>31F</t>
-  </si>
-  <si>
-    <t>32F</t>
-  </si>
-  <si>
-    <t>范珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArgusHuang</t>
+    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_fang.jspx?dengJh=%E5%A4%8F1800093&amp;houseDengJh=%E5%A4%8F0006778</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +232,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,14 +275,12 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,9 +290,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,6 +313,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379668</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="723900"/>
+          <a:ext cx="10657143" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>627314</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="0"/>
+          <a:ext cx="10685714" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,280 +663,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11" style="2"/>
+    <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4">
+        <v>7</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4">
+        <v>9</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1">
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -823,8 +998,12 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="V40" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>